--- a/App_application/sample/document/waybill/waybill.xlsx
+++ b/App_application/sample/document/waybill/waybill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A2v10_Net48\A2v10.Web.Sample\App_application\sample\document\waybill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4643AB21-2E0F-47C8-9233-D3386B67A111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDD40FF-3675-463F-853F-58C54BFC2CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1215" windowWidth="27180" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>{Id}</t>
   </si>
@@ -81,14 +81,30 @@
   </si>
   <si>
     <t>{Document.No}</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>{Document.Sum}</t>
+  </si>
+  <si>
+    <t>Відпустив</t>
+  </si>
+  <si>
+    <t>Прийняв</t>
+  </si>
+  <si>
+    <t>Footer here</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₴&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -142,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -159,8 +175,11 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,11 +460,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE7"/>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -533,6 +550,27 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" r:id="rId1"/>
@@ -541,11 +579,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E7F829-F712-494F-AEBC-060361A0E04A}">
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -617,6 +653,19 @@
         <v>13</v>
       </c>
     </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AE11" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
